--- a/مستندات/بازخورد/ListFeedBack.xlsx
+++ b/مستندات/بازخورد/ListFeedBack.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>شماره</t>
   </si>
@@ -55,6 +55,30 @@
   </si>
   <si>
     <t>م بقایی نیا</t>
+  </si>
+  <si>
+    <t>1399sa002</t>
+  </si>
+  <si>
+    <t>1399/09/26</t>
+  </si>
+  <si>
+    <t>رعایت اصول چپ چین-راست چین در تغییر زبان</t>
+  </si>
+  <si>
+    <t>1399sa003</t>
+  </si>
+  <si>
+    <t>1399/09/29</t>
+  </si>
+  <si>
+    <t>ریسپانسیو در صفحه خانه</t>
+  </si>
+  <si>
+    <t>1399sa004</t>
+  </si>
+  <si>
+    <t>تاکید بر تخصصی بودن برنامه</t>
   </si>
 </sst>
 </file>
@@ -146,40 +170,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="B Nazanin"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
         <color theme="1"/>
         <name val="B Nazanin"/>
         <scheme val="none"/>
@@ -443,6 +433,40 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="B Nazanin"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -457,16 +481,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G1048575" totalsRowShown="0" headerRowDxfId="0" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G1048575" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G1048575"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="شماره" dataDxfId="7"/>
-    <tableColumn id="2" name="ثبت کننده" dataDxfId="6"/>
-    <tableColumn id="3" name="تاریخ" dataDxfId="5"/>
-    <tableColumn id="4" name="شرح" dataDxfId="4"/>
-    <tableColumn id="5" name="مسئول رفع اشکال" dataDxfId="3"/>
-    <tableColumn id="6" name="اقدام انجام شده" dataDxfId="2"/>
-    <tableColumn id="7" name="اقدام لازم" dataDxfId="1"/>
+    <tableColumn id="1" name="شماره" dataDxfId="6"/>
+    <tableColumn id="2" name="ثبت کننده" dataDxfId="5"/>
+    <tableColumn id="3" name="تاریخ" dataDxfId="4"/>
+    <tableColumn id="4" name="شرح" dataDxfId="3"/>
+    <tableColumn id="5" name="مسئول رفع اشکال" dataDxfId="2"/>
+    <tableColumn id="6" name="اقدام انجام شده" dataDxfId="1"/>
+    <tableColumn id="7" name="اقدام لازم" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -735,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -792,6 +816,57 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
